--- a/team_specific_matrix/Lewis & Clark_A.xlsx
+++ b/team_specific_matrix/Lewis & Clark_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
       <c r="C2">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.2</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -599,16 +599,16 @@
         <v>0</v>
       </c>
       <c r="P3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
         <v>0.3333333333333333</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.25</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.125</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.25</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R6">
-        <v>0.125</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="S6">
-        <v>0.25</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1428571428571428</v>
+        <v>0.1</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2857142857142857</v>
+        <v>0.4</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>0.4285714285714285</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.03448275862068965</v>
+        <v>0.05660377358490566</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.06896551724137931</v>
+        <v>0.03773584905660377</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06896551724137931</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1379310344827586</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.103448275862069</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="R8">
-        <v>0.103448275862069</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="S8">
-        <v>0.4827586206896552</v>
+        <v>0.4905660377358491</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.125</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.125</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="R9">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="S9">
-        <v>0.25</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.02439024390243903</v>
+        <v>0.02409638554216868</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02439024390243903</v>
+        <v>0.01204819277108434</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.07317073170731707</v>
+        <v>0.04819277108433735</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1707317073170732</v>
+        <v>0.144578313253012</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1463414634146341</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.03614457831325301</v>
       </c>
       <c r="S10">
-        <v>0.5609756097560976</v>
+        <v>0.5301204819277109</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1111111111111111</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2222222222222222</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.3333333333333333</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1283,16 +1283,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.25</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="J15">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K15">
-        <v>0.25</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.3076923076923077</v>
+        <v>0.2647058823529412</v>
       </c>
       <c r="I17">
-        <v>0.07692307692307693</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="J17">
-        <v>0.1538461538461539</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="K17">
-        <v>0.1538461538461539</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07692307692307693</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.2307692307692308</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.8333333333333334</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="J18">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.01652892561983471</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.3174603174603174</v>
+        <v>0.2809917355371901</v>
       </c>
       <c r="I19">
-        <v>0.1111111111111111</v>
+        <v>0.1074380165289256</v>
       </c>
       <c r="J19">
-        <v>0.3174603174603174</v>
+        <v>0.3388429752066116</v>
       </c>
       <c r="K19">
-        <v>0.04761904761904762</v>
+        <v>0.03305785123966942</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.04761904761904762</v>
+        <v>0.03305785123966942</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.03174603174603174</v>
+        <v>0.03305785123966942</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.126984126984127</v>
+        <v>0.1570247933884298</v>
       </c>
     </row>
   </sheetData>
